--- a/pred_ohlcv/54_21/2020-01-16 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>217.1692000000001</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>228.2096000000001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>244.6984000000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-95.10676101999987</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-97.04626101999986</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-95.02106101999986</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-95.00616101999987</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-114.0771610199999</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-109.4263610199999</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-114.0770610199999</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-162.5932610199999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-157.0428610199999</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-151.4828610199999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-151.5064610199998</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-146.9131610199998</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-180.3486615499999</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-180.3486615499999</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-16.87906753999987</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-18.54136753999987</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-27.54136753999987</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-27.32856753999987</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-34.29446753999986</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-34.29446753999986</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-33.49446753999987</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-33.49446753999987</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-33.89726753999987</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-46.08166753999987</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-43.92456753999987</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>233.7692324600001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>240.4881324600001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>239.8281324600001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>239.8281324600001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>241.2375324600001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-95.61746753999989</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-146.7478675399999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-132.5182675399999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-24.2756675399999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-34.8954675399999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-61.7180675399999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2.049532460000108</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-116.7467551799999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-11.4844551799999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-82.46635517999991</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>67.11694591000008</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2582.46605236</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2387.63424739</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2578.24974739</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2393.88884932</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2416.37763233</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>2230.96753233</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1638.82803446</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1957.51963446</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>2191.38373446</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>2110.35388634</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>2353.01330231</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2443.17657387</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>2578.25457387</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>2585.21847387</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>2357.35259631</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>2408.031696309999</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>2143.906996309999</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>2100.930696309999</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>2046.07298427</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1755.597984269999</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1670.933784269999</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>2627.954882780001</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>2580.604982780001</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>2576.432882780001</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>2551.432882780001</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>2551.879982780001</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>2551.879982780001</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>2516.666182780001</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>2452.144582780001</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>2490.447782780001</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>2499.103682780001</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>2456.711782780001</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>2525.818882780001</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>2521.028082780001</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>2521.811082780001</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>2053.65778278</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ZEC ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>-95.10676101999987</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-95.02106101999986</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-95.00616101999987</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-114.0771610199999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-109.4263610199999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-114.0770610199999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-136.7304610199999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-147.8971610199999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-147.8735610199999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-149.6325610199999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-162.5932610199999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-157.0428610199999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-151.4828610199999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-151.5064610199998</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-146.9131610199998</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-180.3486615499999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-180.3486615499999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-27.32856753999987</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>239.8281324600001</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>239.8281324600001</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>241.2375324600001</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-95.61746753999989</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-146.7478675399999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-132.5182675399999</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-24.2756675399999</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-34.8954675399999</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-61.7180675399999</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-116.7467551799999</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-11.4844551799999</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-82.46635517999991</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>67.11694591000008</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2582.46605236</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2387.63424739</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2578.24974739</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2393.88884932</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2416.37763233</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>2230.96753233</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1638.82803446</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1957.51963446</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>2191.38373446</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>2110.35388634</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>2353.01330231</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>2272.7992747</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>2536.05242371</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2443.17657387</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>2578.25457387</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>2585.21847387</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>2408.031696309999</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>2100.930696309999</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>2145.930896309999</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>2178.515284269999</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>2046.07298427</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1755.597984269999</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1670.933784269999</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>2452.813806430001</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>2586.982806430001</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>2452.382188630001</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>2452.382188630001</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>2531.587588630001</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2471.992988630001</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>2584.042588630001</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>2619.288888630001</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>2697.448082780001</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>2627.954882780001</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>2580.604982780001</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>2576.432882780001</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>2551.432882780001</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>2551.879982780001</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>2551.879982780001</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>2516.666182780001</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>2452.144582780001</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>2452.144582780001</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>2490.447782780001</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>2490.447782780001</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>2499.103682780001</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>2456.711782780001</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>2525.818882780001</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>2521.028082780001</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>2516.588082780001</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>2516.588082780001</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>2444.78898278</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>2350.80058278</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>2109.18968278</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>2072.23098278</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
